--- a/Modelos/13JulioPuntos/ConfiguracionBotonesNegociacion.xlsx
+++ b/Modelos/13JulioPuntos/ConfiguracionBotonesNegociacion.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LibreameBE\Modelos\13JulioPuntos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Definicion" sheetId="1" r:id="rId1"/>
     <sheet name="Solicitante" sheetId="2" r:id="rId2"/>
     <sheet name="Dueño" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dueño!$A$2:$G$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Solicitante!$A$2:$G$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dueño!$A$2:$I$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Solicitante!$A$2:$I$52</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Manuel Alexander Ramírez</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="44">
   <si>
     <t>Botónes</t>
   </si>
@@ -181,12 +189,24 @@
   <si>
     <t>[-1,5]</t>
   </si>
+  <si>
+    <t>Estado Inicial Solicitante</t>
+  </si>
+  <si>
+    <t>[-1,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>[-1,4]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +267,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -416,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -459,6 +487,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -479,13 +526,16 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -542,6 +592,1918 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28376</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6E488B-588E-4BB6-A5AB-46DE8D34ECF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5153025" y="819150"/>
+          <a:ext cx="1590476" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1352399</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38062</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E655694E-F77B-486F-A5D3-7480D1A7A8EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8448675" y="790575"/>
+          <a:ext cx="1209524" cy="304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1228619</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C4F6EE-FD40-4B16-858D-297933711750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5505450" y="1276350"/>
+          <a:ext cx="847619" cy="342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>981021</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C85B3865-E400-4E03-8EC6-EBA572C29D49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="3381375"/>
+          <a:ext cx="428571" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>990546</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171411</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{069832A4-E44A-4456-8469-890881DB447E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5686425" y="3771900"/>
+          <a:ext cx="428571" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1057221</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171411</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8519CBCB-5184-4DBE-A449-FCE80B9F0576}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8934450" y="3771900"/>
+          <a:ext cx="428571" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1161946</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5106D23-9FBB-46D2-8153-047E03C1119B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8639175" y="1276350"/>
+          <a:ext cx="828571" cy="342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>933344</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF7D524E-618E-4CB3-BE21-F8CA4ED87945}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="4676775"/>
+          <a:ext cx="847619" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1419074</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79091874-7271-41CF-88E3-30C7761B5952}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8515350" y="1771650"/>
+          <a:ext cx="1209524" cy="304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>18851</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C54710C0-032C-4FC8-BCBF-52551CAA5444}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="2428875"/>
+          <a:ext cx="1590476" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9326</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F216D4D-A424-419B-9A1E-C82338074DCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8315325" y="2419350"/>
+          <a:ext cx="1590476" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1180995</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E51CA3A1-CE74-4800-A0F3-6A88F134A76E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5467350" y="2990850"/>
+          <a:ext cx="838095" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1238145</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>171408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9B07F69-5FAF-4F1C-BB15-F2D379316085}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8705850" y="3371850"/>
+          <a:ext cx="838095" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>48684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1225445</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F24E92-9B26-47D5-AD32-944FA03A2098}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8684683" y="3012017"/>
+          <a:ext cx="838095" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>21168</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>455084</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>74525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagen 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C54B052-E7A6-45AC-9650-DADD580DAA34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21168" y="825500"/>
+          <a:ext cx="433916" cy="307358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419048</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>175643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F64B8F3-02A3-4E7D-A945-9B0824105852}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1291166"/>
+          <a:ext cx="419048" cy="323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>42334</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>137583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>432810</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>61345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagen 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A152D9A-4FA5-4FE8-98BB-33D8A9AEC4BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42334" y="1767416"/>
+          <a:ext cx="390476" cy="304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>31751</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>431751</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>156595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagen 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{069BF686-AFD4-40D7-91B9-585EA5B48692}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31751" y="2434166"/>
+          <a:ext cx="400000" cy="304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>21167</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>421167</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>166119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Imagen 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10B34677-B7E1-4CCF-91E2-47CD25FF73AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21167" y="3005666"/>
+          <a:ext cx="400000" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409524</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>167179</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Imagen 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{372FC9E2-754D-49F0-9D14-10241BED3757}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3397250"/>
+          <a:ext cx="409524" cy="304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>103717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1393774</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>65574</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="Grupo 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3426863-79D6-4C6F-A182-7E0CB80C38DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5312833" y="1733550"/>
+          <a:ext cx="1203274" cy="342857"/>
+          <a:chOff x="5503333" y="1754716"/>
+          <a:chExt cx="1203274" cy="342857"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Imagen 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A3DE7D-36ED-4930-92FD-AB86802EA96A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5503333" y="1754716"/>
+            <a:ext cx="828571" cy="342857"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="25" name="Imagen 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7EF1F7-6DF8-47C1-8210-4089D23C5B0E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6297083" y="1767417"/>
+            <a:ext cx="409524" cy="314286"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1644451</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F90EC7A-429F-41F1-9AB8-FD9A9F523E62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7639050" y="657225"/>
+          <a:ext cx="1587301" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1644451</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A514EF-3F81-46DC-844A-D65393C5A329}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7639050" y="2124075"/>
+          <a:ext cx="1587301" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1038171</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{535D17E0-272A-45E0-840A-FF1823783612}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048250" y="2924175"/>
+          <a:ext cx="428571" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1038171</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>161886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323A65BD-2D3A-4701-B5B4-87D37C818505}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048250" y="3248025"/>
+          <a:ext cx="428571" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1009596</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D89D387F-00FE-4D1E-81E7-DDF66A511A48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8162925" y="3228975"/>
+          <a:ext cx="428571" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1257194</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142832</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4C1D2E-A466-49F3-A7E6-B31B0CB626AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848225" y="1152525"/>
+          <a:ext cx="847619" cy="285707"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1222271</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19007</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729E613D-E47A-42D6-86B8-4FB853F204E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7975600" y="1133475"/>
+          <a:ext cx="828571" cy="342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1400024</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142837</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6419892C-C512-421C-85AD-B96ED3E78807}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629150" y="647700"/>
+          <a:ext cx="1209524" cy="304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1419074</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152362</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C12EA37-0692-478A-AABA-E065722409B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="2114550"/>
+          <a:ext cx="1209524" cy="304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1457174</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C967E07-9931-4F82-A986-82643F0E15B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="1533525"/>
+          <a:ext cx="1209524" cy="304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1257195</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F404DA7-CA44-4F58-BB87-7E9A24F3FC5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="2600325"/>
+          <a:ext cx="838095" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1219095</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BC479CA-ECA9-4B50-931D-8F77C6D51D4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="2943224"/>
+          <a:ext cx="838095" cy="285751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1180996</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940A2026-7F8C-40BA-BD64-F41BCB2729F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7934325" y="2581275"/>
+          <a:ext cx="828571" cy="323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376517</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0413C0CD-D3B3-48D1-A416-F6C61A32A8D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="676275"/>
+          <a:ext cx="376517" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>373716</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagen 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4A7831-7533-4BD8-8E99-A32156342438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="1171575"/>
+          <a:ext cx="345141" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>89907</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagen 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE9A07D-C97A-4FAE-B03D-E0BDEE4FBDE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="1581150"/>
+          <a:ext cx="371476" cy="289932"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CC891B8-EFF6-422E-B276-D6D983B38FF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="2143125"/>
+          <a:ext cx="333375" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>138340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagen 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DFC513E-BF2F-4319-BB0D-F3B359993D2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="2628900"/>
+          <a:ext cx="323850" cy="262165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330261</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagen 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC493BF-946B-4EC2-A76A-18F67B8E639A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2962275"/>
+          <a:ext cx="330261" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1390599</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85682</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="Grupo 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EFDA1E5-9586-4F8D-B9A0-79A52FC92801}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4591050" y="1524000"/>
+          <a:ext cx="1238199" cy="342857"/>
+          <a:chOff x="4591050" y="1524000"/>
+          <a:chExt cx="1238199" cy="342857"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="14" name="Imagen 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85507EE3-9FB4-4B25-89FF-2F0C03EAD802}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4591050" y="1524000"/>
+            <a:ext cx="828571" cy="342857"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="24" name="Imagen 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65BB0C9F-FB18-416A-A3FA-C834CDE3AE91}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5419725" y="1543050"/>
+            <a:ext cx="409524" cy="304762"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -799,18 +2761,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,11 +2782,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -958,64 +2920,64 @@
       <c r="A15" s="11">
         <v>-1</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>0</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>1</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="27"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>3</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>4</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>7</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="28"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>10</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="27"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
@@ -1028,64 +2990,64 @@
       <c r="A24" s="11">
         <v>-1</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="19"/>
+      <c r="C24" s="26"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>0</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="19"/>
+      <c r="C25" s="26"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>1</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="20"/>
+      <c r="C26" s="27"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>2</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="30"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>5</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="23"/>
+      <c r="C28" s="30"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>6</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="23"/>
+      <c r="C29" s="30"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>10</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1112,12 +3074,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A10"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,922 +3087,1051 @@
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.140625" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="78" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="23.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="78" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="H2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="I2" s="40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="32"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
         <v>-1</v>
       </c>
-      <c r="B4" s="35" t="str">
+      <c r="B4" s="43" t="str">
         <f>+VLOOKUP(A4,Definicion!$A$3:$C$12,3,0)</f>
         <v>Mensaje de texto normal (El que existe actualente para enviar un mensaje en el chat)</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="31"/>
+      <c r="G4" s="4">
         <v>-1</v>
       </c>
-      <c r="F4" s="15" t="str">
-        <f>+VLOOKUP(E4,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H4" s="15" t="str">
+        <f>+VLOOKUP(G4,Definicion!$A$3:$C$12,3,0)</f>
         <v>Mensaje de texto normal (El que existe actualente para enviar un mensaje en el chat)</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="2">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="str">
-        <f>+VLOOKUP(E5,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H5" s="1" t="str">
+        <f>+VLOOKUP(G5,Definicion!$A$3:$C$12,3,0)</f>
         <v>Cancelar el trato actual</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="4">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="15" t="str">
-        <f>+VLOOKUP(E6,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H6" s="15" t="str">
+        <f>+VLOOKUP(G6,Definicion!$A$3:$C$12,3,0)</f>
         <v>Aceptar el trato</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
+    <row r="7" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="2">
+      <c r="C7" s="32"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="1" t="str">
-        <f>+VLOOKUP(E7,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H7" s="1" t="str">
+        <f>+VLOOKUP(G7,Definicion!$A$3:$C$12,3,0)</f>
         <v>Contraofertar una oferta realizada por el Solicitante</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="I7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4">
+      <c r="C8" s="32"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="4">
         <v>4</v>
       </c>
-      <c r="F8" s="15" t="str">
-        <f>+VLOOKUP(E8,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H8" s="15" t="str">
+        <f>+VLOOKUP(G8,Definicion!$A$3:$C$12,3,0)</f>
         <v>Entregar el ejemplar (Se informa a la plataforma que físicamente se entrego)</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="I8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2">
+      <c r="C9" s="32"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="2">
         <v>7</v>
       </c>
-      <c r="F9" s="1" t="str">
-        <f>+VLOOKUP(E9,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H9" s="1" t="str">
+        <f>+VLOOKUP(G9,Definicion!$A$3:$C$12,3,0)</f>
         <v>Calificación (El dueño califica)</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
+      <c r="I9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4">
+      <c r="C10" s="36"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="4">
         <v>10</v>
       </c>
-      <c r="F10" s="15" t="str">
-        <f>+VLOOKUP(E10,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H10" s="15" t="str">
+        <f>+VLOOKUP(G10,Definicion!$A$3:$C$12,3,0)</f>
         <v>TRATO FINALIZADO</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
+      <c r="I10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
         <v>0</v>
       </c>
-      <c r="B11" s="37" t="str">
+      <c r="B11" s="45" t="str">
         <f>+VLOOKUP(A11,Definicion!$A$3:$C$12,3,0)</f>
         <v>Cancelar el trato actual</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="33"/>
+      <c r="E11" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="33"/>
+      <c r="G11" s="2">
         <v>-1</v>
       </c>
-      <c r="F11" s="1" t="str">
-        <f>+VLOOKUP(E11,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H11" s="1" t="str">
+        <f>+VLOOKUP(G11,Definicion!$A$3:$C$12,3,0)</f>
         <v>Mensaje de texto normal (El que existe actualente para enviar un mensaje en el chat)</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="4">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="15" t="str">
-        <f>+VLOOKUP(E12,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H12" s="15" t="str">
+        <f>+VLOOKUP(G12,Definicion!$A$3:$C$12,3,0)</f>
         <v>Cancelar el trato actual</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+    <row r="13" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="2">
+      <c r="C13" s="34"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="1" t="str">
-        <f>+VLOOKUP(E13,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H13" s="1" t="str">
+        <f>+VLOOKUP(G13,Definicion!$A$3:$C$12,3,0)</f>
         <v>Aceptar el trato</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="I13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="4">
+      <c r="C14" s="34"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="4">
         <v>3</v>
       </c>
-      <c r="F14" s="15" t="str">
-        <f>+VLOOKUP(E14,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H14" s="15" t="str">
+        <f>+VLOOKUP(G14,Definicion!$A$3:$C$12,3,0)</f>
         <v>Contraofertar una oferta realizada por el Solicitante</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="I14" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="2">
+      <c r="C15" s="34"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="2">
         <v>4</v>
       </c>
-      <c r="F15" s="1" t="str">
-        <f>+VLOOKUP(E15,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H15" s="1" t="str">
+        <f>+VLOOKUP(G15,Definicion!$A$3:$C$12,3,0)</f>
         <v>Entregar el ejemplar (Se informa a la plataforma que físicamente se entrego)</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="I15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="4">
+      <c r="C16" s="34"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="4">
         <v>7</v>
       </c>
-      <c r="F16" s="15" t="str">
-        <f>+VLOOKUP(E16,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H16" s="15" t="str">
+        <f>+VLOOKUP(G16,Definicion!$A$3:$C$12,3,0)</f>
         <v>Calificación (El dueño califica)</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="I16" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="2">
+      <c r="C17" s="37"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="2">
         <v>10</v>
       </c>
-      <c r="F17" s="1" t="str">
-        <f>+VLOOKUP(E17,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H17" s="1" t="str">
+        <f>+VLOOKUP(G17,Definicion!$A$3:$C$12,3,0)</f>
         <v>TRATO FINALIZADO</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+      <c r="I17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
         <v>1</v>
       </c>
-      <c r="B18" s="35" t="str">
+      <c r="B18" s="43" t="str">
         <f>+VLOOKUP(A18,Definicion!$A$3:$C$12,3,0)</f>
         <v>Aceptar el trato</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="31"/>
+      <c r="E18" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="31"/>
+      <c r="G18" s="4">
         <v>-1</v>
       </c>
-      <c r="F18" s="15" t="str">
-        <f>+VLOOKUP(E18,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H18" s="15" t="str">
+        <f>+VLOOKUP(G18,Definicion!$A$3:$C$12,3,0)</f>
         <v>Mensaje de texto normal (El que existe actualente para enviar un mensaje en el chat)</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="2">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="1" t="str">
-        <f>+VLOOKUP(E19,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H19" s="1" t="str">
+        <f>+VLOOKUP(G19,Definicion!$A$3:$C$12,3,0)</f>
         <v>Cancelar el trato actual</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="4">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="4">
         <v>1</v>
       </c>
-      <c r="F20" s="15" t="str">
-        <f>+VLOOKUP(E20,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H20" s="15" t="str">
+        <f>+VLOOKUP(G20,Definicion!$A$3:$C$12,3,0)</f>
         <v>Aceptar el trato</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+    <row r="21" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="2">
+      <c r="C21" s="32"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="2">
         <v>3</v>
       </c>
-      <c r="F21" s="1" t="str">
-        <f>+VLOOKUP(E21,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H21" s="1" t="str">
+        <f>+VLOOKUP(G21,Definicion!$A$3:$C$12,3,0)</f>
         <v>Contraofertar una oferta realizada por el Solicitante</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
+      <c r="I21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4">
+      <c r="C22" s="32"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="4">
         <v>4</v>
       </c>
-      <c r="F22" s="15" t="str">
-        <f>+VLOOKUP(E22,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H22" s="15" t="str">
+        <f>+VLOOKUP(G22,Definicion!$A$3:$C$12,3,0)</f>
         <v>Entregar el ejemplar (Se informa a la plataforma que físicamente se entrego)</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
+      <c r="I22" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="2">
+      <c r="C23" s="32"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="2">
         <v>7</v>
       </c>
-      <c r="F23" s="1" t="str">
-        <f>+VLOOKUP(E23,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H23" s="1" t="str">
+        <f>+VLOOKUP(G23,Definicion!$A$3:$C$12,3,0)</f>
         <v>Calificación (El dueño califica)</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
+      <c r="I23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="4">
+      <c r="C24" s="36"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="4">
         <v>10</v>
       </c>
-      <c r="F24" s="15" t="str">
-        <f>+VLOOKUP(E24,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H24" s="15" t="str">
+        <f>+VLOOKUP(G24,Definicion!$A$3:$C$12,3,0)</f>
         <v>TRATO FINALIZADO</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
+      <c r="I24" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="33">
         <v>2</v>
       </c>
-      <c r="B25" s="37" t="str">
+      <c r="B25" s="45" t="str">
         <f>+VLOOKUP(A25,Definicion!$A$3:$C$12,3,0)</f>
         <v>Ofertar un valor por un ejemplar</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="33"/>
+      <c r="E25" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="33"/>
+      <c r="G25" s="2">
         <v>-1</v>
       </c>
-      <c r="F25" s="1" t="str">
-        <f>+VLOOKUP(E25,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H25" s="1" t="str">
+        <f>+VLOOKUP(G25,Definicion!$A$3:$C$12,3,0)</f>
         <v>Mensaje de texto normal (El que existe actualente para enviar un mensaje en el chat)</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="4">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="4">
         <v>0</v>
       </c>
-      <c r="F26" s="15" t="str">
-        <f>+VLOOKUP(E26,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H26" s="15" t="str">
+        <f>+VLOOKUP(G26,Definicion!$A$3:$C$12,3,0)</f>
         <v>Cancelar el trato actual</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="2">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="2">
         <v>1</v>
       </c>
-      <c r="F27" s="1" t="str">
-        <f>+VLOOKUP(E27,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H27" s="1" t="str">
+        <f>+VLOOKUP(G27,Definicion!$A$3:$C$12,3,0)</f>
         <v>Aceptar el trato</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="4">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="4">
         <v>3</v>
       </c>
-      <c r="F28" s="15" t="str">
-        <f>+VLOOKUP(E28,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H28" s="15" t="str">
+        <f>+VLOOKUP(G28,Definicion!$A$3:$C$12,3,0)</f>
         <v>Contraofertar una oferta realizada por el Solicitante</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="I28" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
+    <row r="29" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="2">
+      <c r="C29" s="34"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="2">
         <v>4</v>
       </c>
-      <c r="F29" s="1" t="str">
-        <f>+VLOOKUP(E29,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H29" s="1" t="str">
+        <f>+VLOOKUP(G29,Definicion!$A$3:$C$12,3,0)</f>
         <v>Entregar el ejemplar (Se informa a la plataforma que físicamente se entrego)</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
+      <c r="I29" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="4">
+      <c r="C30" s="34"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="4">
         <v>7</v>
       </c>
-      <c r="F30" s="15" t="str">
-        <f>+VLOOKUP(E30,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H30" s="15" t="str">
+        <f>+VLOOKUP(G30,Definicion!$A$3:$C$12,3,0)</f>
         <v>Calificación (El dueño califica)</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
+      <c r="I30" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="2">
+      <c r="C31" s="37"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="2">
         <v>10</v>
       </c>
-      <c r="F31" s="1" t="str">
-        <f>+VLOOKUP(E31,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H31" s="1" t="str">
+        <f>+VLOOKUP(G31,Definicion!$A$3:$C$12,3,0)</f>
         <v>TRATO FINALIZADO</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
+      <c r="I31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="31">
         <v>5</v>
       </c>
-      <c r="B32" s="35" t="str">
+      <c r="B32" s="43" t="str">
         <f>+VLOOKUP(A32,Definicion!$A$3:$C$12,3,0)</f>
         <v>Recibir el ejemplar (Se informa a la plataforma que físicamente se recibió)</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="4">
+      <c r="D32" s="31"/>
+      <c r="E32" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="31"/>
+      <c r="G32" s="4">
         <v>-1</v>
       </c>
-      <c r="F32" s="15" t="str">
-        <f>+VLOOKUP(E32,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H32" s="15" t="str">
+        <f>+VLOOKUP(G32,Definicion!$A$3:$C$12,3,0)</f>
         <v>Mensaje de texto normal (El que existe actualente para enviar un mensaje en el chat)</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="2">
+    <row r="33" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="2">
         <v>0</v>
       </c>
-      <c r="F33" s="1" t="str">
-        <f>+VLOOKUP(E33,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H33" s="1" t="str">
+        <f>+VLOOKUP(G33,Definicion!$A$3:$C$12,3,0)</f>
         <v>Cancelar el trato actual</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="4">
+      <c r="I33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="4">
         <v>1</v>
       </c>
-      <c r="F34" s="15" t="str">
-        <f>+VLOOKUP(E34,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H34" s="15" t="str">
+        <f>+VLOOKUP(G34,Definicion!$A$3:$C$12,3,0)</f>
         <v>Aceptar el trato</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="2">
+      <c r="I34" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="2">
         <v>3</v>
       </c>
-      <c r="F35" s="1" t="str">
-        <f>+VLOOKUP(E35,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H35" s="1" t="str">
+        <f>+VLOOKUP(G35,Definicion!$A$3:$C$12,3,0)</f>
         <v>Contraofertar una oferta realizada por el Solicitante</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="4">
+      <c r="I35" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="32"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="4">
         <v>4</v>
       </c>
-      <c r="F36" s="15" t="str">
-        <f>+VLOOKUP(E36,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H36" s="15" t="str">
+        <f>+VLOOKUP(G36,Definicion!$A$3:$C$12,3,0)</f>
         <v>Entregar el ejemplar (Se informa a la plataforma que físicamente se entrego)</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
+    <row r="37" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="32"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="2">
+      <c r="C37" s="32"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="2">
         <v>7</v>
       </c>
-      <c r="F37" s="1" t="str">
-        <f>+VLOOKUP(E37,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H37" s="1" t="str">
+        <f>+VLOOKUP(G37,Definicion!$A$3:$C$12,3,0)</f>
         <v>Calificación (El dueño califica)</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
+      <c r="I37" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="36"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="4">
+      <c r="C38" s="36"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="4">
         <v>10</v>
       </c>
-      <c r="F38" s="15" t="str">
-        <f>+VLOOKUP(E38,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H38" s="15" t="str">
+        <f>+VLOOKUP(G38,Definicion!$A$3:$C$12,3,0)</f>
         <v>TRATO FINALIZADO</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="27">
+      <c r="I38" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="33">
         <v>6</v>
       </c>
-      <c r="B39" s="37" t="str">
+      <c r="B39" s="45" t="str">
         <f>+VLOOKUP(A39,Definicion!$A$3:$C$12,3,0)</f>
         <v>Calificación (El solicitante califica)</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="33"/>
+      <c r="E39" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="2">
+      <c r="F39" s="33"/>
+      <c r="G39" s="2">
         <v>-1</v>
       </c>
-      <c r="F39" s="1" t="str">
-        <f>+VLOOKUP(E39,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H39" s="1" t="str">
+        <f>+VLOOKUP(G39,Definicion!$A$3:$C$12,3,0)</f>
         <v>Mensaje de texto normal (El que existe actualente para enviar un mensaje en el chat)</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="4">
+    <row r="40" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="4">
         <v>0</v>
       </c>
-      <c r="F40" s="15" t="str">
-        <f>+VLOOKUP(E40,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H40" s="15" t="str">
+        <f>+VLOOKUP(G40,Definicion!$A$3:$C$12,3,0)</f>
         <v>Cancelar el trato actual</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="2">
+      <c r="I40" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="2">
         <v>1</v>
       </c>
-      <c r="F41" s="1" t="str">
-        <f>+VLOOKUP(E41,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H41" s="1" t="str">
+        <f>+VLOOKUP(G41,Definicion!$A$3:$C$12,3,0)</f>
         <v>Aceptar el trato</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="4">
+      <c r="I41" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="4">
         <v>3</v>
       </c>
-      <c r="F42" s="15" t="str">
-        <f>+VLOOKUP(E42,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H42" s="15" t="str">
+        <f>+VLOOKUP(G42,Definicion!$A$3:$C$12,3,0)</f>
         <v>Contraofertar una oferta realizada por el Solicitante</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="2">
+      <c r="I42" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="2">
         <v>4</v>
       </c>
-      <c r="F43" s="1" t="str">
-        <f>+VLOOKUP(E43,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H43" s="1" t="str">
+        <f>+VLOOKUP(G43,Definicion!$A$3:$C$12,3,0)</f>
         <v>Entregar el ejemplar (Se informa a la plataforma que físicamente se entrego)</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="4">
+      <c r="I43" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="34"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="4">
         <v>7</v>
       </c>
-      <c r="F44" s="15" t="str">
-        <f>+VLOOKUP(E44,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H44" s="15" t="str">
+        <f>+VLOOKUP(G44,Definicion!$A$3:$C$12,3,0)</f>
         <v>Calificación (El dueño califica)</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="I44" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
+    <row r="45" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="37"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="2">
+      <c r="C45" s="37"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="2">
         <v>10</v>
       </c>
-      <c r="F45" s="1" t="str">
-        <f>+VLOOKUP(E45,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H45" s="1" t="str">
+        <f>+VLOOKUP(G45,Definicion!$A$3:$C$12,3,0)</f>
         <v>TRATO FINALIZADO</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="24">
+      <c r="I45" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="31">
         <v>10</v>
       </c>
-      <c r="B46" s="35" t="str">
+      <c r="B46" s="43" t="str">
         <f>+VLOOKUP(A46,Definicion!$A$3:$C$12,3,0)</f>
         <v>TRATO FINALIZADO</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="35"/>
+      <c r="E46" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F46" s="35"/>
+      <c r="G46" s="4">
         <v>-1</v>
       </c>
-      <c r="F46" s="15" t="str">
-        <f>+VLOOKUP(E46,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H46" s="15" t="str">
+        <f>+VLOOKUP(G46,Definicion!$A$3:$C$12,3,0)</f>
         <v>Mensaje de texto normal (El que existe actualente para enviar un mensaje en el chat)</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="I46" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="2">
+    <row r="47" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="2">
         <v>0</v>
       </c>
-      <c r="F47" s="1" t="str">
-        <f>+VLOOKUP(E47,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H47" s="1" t="str">
+        <f>+VLOOKUP(G47,Definicion!$A$3:$C$12,3,0)</f>
         <v>Cancelar el trato actual</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="4">
+      <c r="I47" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="4">
         <v>1</v>
       </c>
-      <c r="F48" s="15" t="str">
-        <f>+VLOOKUP(E48,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H48" s="15" t="str">
+        <f>+VLOOKUP(G48,Definicion!$A$3:$C$12,3,0)</f>
         <v>Aceptar el trato</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="2">
+      <c r="I48" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="2">
         <v>3</v>
       </c>
-      <c r="F49" s="1" t="str">
-        <f>+VLOOKUP(E49,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H49" s="1" t="str">
+        <f>+VLOOKUP(G49,Definicion!$A$3:$C$12,3,0)</f>
         <v>Contraofertar una oferta realizada por el Solicitante</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="4">
+      <c r="I49" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="4">
         <v>4</v>
       </c>
-      <c r="F50" s="15" t="str">
-        <f>+VLOOKUP(E50,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H50" s="15" t="str">
+        <f>+VLOOKUP(G50,Definicion!$A$3:$C$12,3,0)</f>
         <v>Entregar el ejemplar (Se informa a la plataforma que físicamente se entrego)</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="2">
+      <c r="I50" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="2">
         <v>7</v>
       </c>
-      <c r="F51" s="1" t="str">
-        <f>+VLOOKUP(E51,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H51" s="1" t="str">
+        <f>+VLOOKUP(G51,Definicion!$A$3:$C$12,3,0)</f>
         <v>Calificación (El dueño califica)</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="4">
+      <c r="I51" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="36"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="4">
         <v>10</v>
       </c>
-      <c r="F52" s="15" t="str">
-        <f>+VLOOKUP(E52,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H52" s="15" t="str">
+        <f>+VLOOKUP(G52,Definicion!$A$3:$C$12,3,0)</f>
         <v>TRATO FINALIZADO</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="I52" s="4" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="35"/>
+    </row>
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+    </row>
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+    </row>
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A2:G52">
-    <filterColumn colId="6">
+  <autoFilter ref="A2:I52" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="8">
       <filters>
         <filter val="S"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="36">
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="D46:D52"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="D32:D36"/>
+  <mergeCells count="52">
     <mergeCell ref="C46:C52"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B6"/>
@@ -2056,33 +4147,57 @@
     <mergeCell ref="C32:C38"/>
     <mergeCell ref="C39:C45"/>
     <mergeCell ref="C4:C10"/>
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="F46:F52"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="D46:D52"/>
+    <mergeCell ref="B55:B57"/>
     <mergeCell ref="A46:A52"/>
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="E46:E52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:D36"/>
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2090,917 +4205,1017 @@
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="78" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="78" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="H2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="I2" s="40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="32"/>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
         <v>-1</v>
       </c>
-      <c r="B4" s="35" t="str">
+      <c r="B4" s="43" t="str">
         <f>+VLOOKUP(A4,Definicion!$A$3:$C$12,3,0)</f>
         <v>Mensaje de texto normal (El que existe actualente para enviar un mensaje en el chat)</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="31"/>
+      <c r="G4" s="4">
         <v>-1</v>
       </c>
-      <c r="F4" s="4" t="str">
-        <f>+VLOOKUP(E4,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H4" s="4" t="str">
+        <f>+VLOOKUP(G4,Definicion!$A$3:$C$12,3,0)</f>
         <v>Mensaje de texto normal (El que existe actualente para enviar un mensaje en el chat)</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="2">
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="2" t="str">
-        <f>+VLOOKUP(E5,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H5" s="2" t="str">
+        <f>+VLOOKUP(G5,Definicion!$A$3:$C$12,3,0)</f>
         <v>Cancelar el trato actual</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="4">
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="4" t="str">
-        <f>+VLOOKUP(E6,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H6" s="4" t="str">
+        <f>+VLOOKUP(G6,Definicion!$A$3:$C$12,3,0)</f>
         <v>Aceptar el trato</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="2">
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="2" t="str">
-        <f>+VLOOKUP(E7,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H7" s="2" t="str">
+        <f>+VLOOKUP(G7,Definicion!$A$3:$C$12,3,0)</f>
         <v>Ofertar un valor por un ejemplar</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+    <row r="8" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4">
+      <c r="C8" s="32"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="4">
         <v>5</v>
       </c>
-      <c r="F8" s="4" t="str">
-        <f>+VLOOKUP(E8,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H8" s="4" t="str">
+        <f>+VLOOKUP(G8,Definicion!$A$3:$C$12,3,0)</f>
         <v>Recibir el ejemplar (Se informa a la plataforma que físicamente se recibió)</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="I8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2">
+      <c r="C9" s="32"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="2">
         <v>6</v>
       </c>
-      <c r="F9" s="2" t="str">
-        <f>+VLOOKUP(E9,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H9" s="2" t="str">
+        <f>+VLOOKUP(G9,Definicion!$A$3:$C$12,3,0)</f>
         <v>Calificación (El solicitante califica)</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
+      <c r="I9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4">
+      <c r="C10" s="36"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="4">
         <v>10</v>
       </c>
-      <c r="F10" s="4" t="str">
-        <f>+VLOOKUP(E10,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H10" s="4" t="str">
+        <f>+VLOOKUP(G10,Definicion!$A$3:$C$12,3,0)</f>
         <v>TRATO FINALIZADO</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
+      <c r="I10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
         <v>0</v>
       </c>
-      <c r="B11" s="37" t="str">
+      <c r="B11" s="45" t="str">
         <f>+VLOOKUP(A11,Definicion!$A$3:$C$12,3,0)</f>
         <v>Cancelar el trato actual</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="33"/>
+      <c r="E11" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="33"/>
+      <c r="G11" s="2">
         <v>-1</v>
       </c>
-      <c r="F11" s="2" t="str">
-        <f>+VLOOKUP(E11,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H11" s="2" t="str">
+        <f>+VLOOKUP(G11,Definicion!$A$3:$C$12,3,0)</f>
         <v>Mensaje de texto normal (El que existe actualente para enviar un mensaje en el chat)</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="4">
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="4" t="str">
-        <f>+VLOOKUP(E12,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H12" s="4" t="str">
+        <f>+VLOOKUP(G12,Definicion!$A$3:$C$12,3,0)</f>
         <v>Cancelar el trato actual</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+    <row r="13" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="2">
+      <c r="C13" s="34"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="2" t="str">
-        <f>+VLOOKUP(E13,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H13" s="2" t="str">
+        <f>+VLOOKUP(G13,Definicion!$A$3:$C$12,3,0)</f>
         <v>Aceptar el trato</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="I13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="4">
+      <c r="C14" s="34"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="4">
         <v>2</v>
       </c>
-      <c r="F14" s="4" t="str">
-        <f>+VLOOKUP(E14,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H14" s="4" t="str">
+        <f>+VLOOKUP(G14,Definicion!$A$3:$C$12,3,0)</f>
         <v>Ofertar un valor por un ejemplar</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="I14" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="2">
+      <c r="C15" s="34"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="2">
         <v>5</v>
       </c>
-      <c r="F15" s="2" t="str">
-        <f>+VLOOKUP(E15,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H15" s="2" t="str">
+        <f>+VLOOKUP(G15,Definicion!$A$3:$C$12,3,0)</f>
         <v>Recibir el ejemplar (Se informa a la plataforma que físicamente se recibió)</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="I15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="4">
+      <c r="C16" s="34"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="4">
         <v>6</v>
       </c>
-      <c r="F16" s="4" t="str">
-        <f>+VLOOKUP(E16,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H16" s="4" t="str">
+        <f>+VLOOKUP(G16,Definicion!$A$3:$C$12,3,0)</f>
         <v>Calificación (El solicitante califica)</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="I16" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="2">
+      <c r="C17" s="37"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="2">
         <v>10</v>
       </c>
-      <c r="F17" s="2" t="str">
-        <f>+VLOOKUP(E17,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H17" s="2" t="str">
+        <f>+VLOOKUP(G17,Definicion!$A$3:$C$12,3,0)</f>
         <v>TRATO FINALIZADO</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+      <c r="I17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
         <v>1</v>
       </c>
-      <c r="B18" s="35" t="str">
+      <c r="B18" s="43" t="str">
         <f>+VLOOKUP(A18,Definicion!$A$3:$C$12,3,0)</f>
         <v>Aceptar el trato</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="31"/>
+      <c r="E18" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="31"/>
+      <c r="G18" s="4">
         <v>-1</v>
       </c>
-      <c r="F18" s="4" t="str">
-        <f>+VLOOKUP(E18,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H18" s="4" t="str">
+        <f>+VLOOKUP(G18,Definicion!$A$3:$C$12,3,0)</f>
         <v>Mensaje de texto normal (El que existe actualente para enviar un mensaje en el chat)</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="2">
+    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="2" t="str">
-        <f>+VLOOKUP(E19,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H19" s="2" t="str">
+        <f>+VLOOKUP(G19,Definicion!$A$3:$C$12,3,0)</f>
         <v>Cancelar el trato actual</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="4">
+    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="4">
         <v>1</v>
       </c>
-      <c r="F20" s="4" t="str">
-        <f>+VLOOKUP(E20,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H20" s="4" t="str">
+        <f>+VLOOKUP(G20,Definicion!$A$3:$C$12,3,0)</f>
         <v>Aceptar el trato</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+    <row r="21" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="2">
+      <c r="C21" s="32"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="2">
         <v>2</v>
       </c>
-      <c r="F21" s="2" t="str">
-        <f>+VLOOKUP(E21,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H21" s="2" t="str">
+        <f>+VLOOKUP(G21,Definicion!$A$3:$C$12,3,0)</f>
         <v>Ofertar un valor por un ejemplar</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
+      <c r="I21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4">
+      <c r="C22" s="32"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="4">
         <v>5</v>
       </c>
-      <c r="F22" s="4" t="str">
-        <f>+VLOOKUP(E22,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H22" s="4" t="str">
+        <f>+VLOOKUP(G22,Definicion!$A$3:$C$12,3,0)</f>
         <v>Recibir el ejemplar (Se informa a la plataforma que físicamente se recibió)</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
+      <c r="I22" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="2">
+      <c r="C23" s="32"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="2">
         <v>6</v>
       </c>
-      <c r="F23" s="2" t="str">
-        <f>+VLOOKUP(E23,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H23" s="2" t="str">
+        <f>+VLOOKUP(G23,Definicion!$A$3:$C$12,3,0)</f>
         <v>Calificación (El solicitante califica)</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
+      <c r="I23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="4">
+      <c r="C24" s="36"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="4">
         <v>10</v>
       </c>
-      <c r="F24" s="4" t="str">
-        <f>+VLOOKUP(E24,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H24" s="4" t="str">
+        <f>+VLOOKUP(G24,Definicion!$A$3:$C$12,3,0)</f>
         <v>TRATO FINALIZADO</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
+      <c r="I24" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="33">
         <v>3</v>
       </c>
-      <c r="B25" s="37" t="str">
+      <c r="B25" s="45" t="str">
         <f>+VLOOKUP(A25,Definicion!$A$3:$C$12,3,0)</f>
         <v>Contraofertar una oferta realizada por el Solicitante</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="33"/>
+      <c r="E25" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="33"/>
+      <c r="G25" s="2">
         <v>-1</v>
       </c>
-      <c r="F25" s="2" t="str">
-        <f>+VLOOKUP(E25,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H25" s="2" t="str">
+        <f>+VLOOKUP(G25,Definicion!$A$3:$C$12,3,0)</f>
         <v>Mensaje de texto normal (El que existe actualente para enviar un mensaje en el chat)</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="4">
+    <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="4">
         <v>0</v>
       </c>
-      <c r="F26" s="4" t="str">
-        <f>+VLOOKUP(E26,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H26" s="4" t="str">
+        <f>+VLOOKUP(G26,Definicion!$A$3:$C$12,3,0)</f>
         <v>Cancelar el trato actual</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="2">
+    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="2">
         <v>1</v>
       </c>
-      <c r="F27" s="2" t="str">
-        <f>+VLOOKUP(E27,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H27" s="2" t="str">
+        <f>+VLOOKUP(G27,Definicion!$A$3:$C$12,3,0)</f>
         <v>Aceptar el trato</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="4">
+    <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="4">
         <v>2</v>
       </c>
-      <c r="F28" s="4" t="str">
-        <f>+VLOOKUP(E28,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H28" s="4" t="str">
+        <f>+VLOOKUP(G28,Definicion!$A$3:$C$12,3,0)</f>
         <v>Ofertar un valor por un ejemplar</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="I28" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
+    <row r="29" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="2">
+      <c r="C29" s="34"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="2">
         <v>5</v>
       </c>
-      <c r="F29" s="2" t="str">
-        <f>+VLOOKUP(E29,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H29" s="2" t="str">
+        <f>+VLOOKUP(G29,Definicion!$A$3:$C$12,3,0)</f>
         <v>Recibir el ejemplar (Se informa a la plataforma que físicamente se recibió)</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
+      <c r="I29" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="4">
+      <c r="C30" s="34"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="4">
         <v>6</v>
       </c>
-      <c r="F30" s="4" t="str">
-        <f>+VLOOKUP(E30,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H30" s="4" t="str">
+        <f>+VLOOKUP(G30,Definicion!$A$3:$C$12,3,0)</f>
         <v>Calificación (El solicitante califica)</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
+      <c r="I30" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="2">
+      <c r="C31" s="37"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="2">
         <v>10</v>
       </c>
-      <c r="F31" s="2" t="str">
-        <f>+VLOOKUP(E31,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H31" s="2" t="str">
+        <f>+VLOOKUP(G31,Definicion!$A$3:$C$12,3,0)</f>
         <v>TRATO FINALIZADO</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
+      <c r="I31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="31">
         <v>4</v>
       </c>
-      <c r="B32" s="35" t="str">
+      <c r="B32" s="43" t="str">
         <f>+VLOOKUP(A32,Definicion!$A$3:$C$12,3,0)</f>
         <v>Entregar el ejemplar (Se informa a la plataforma que físicamente se entrego)</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="31"/>
+      <c r="E32" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="31"/>
+      <c r="G32" s="4">
         <v>-1</v>
       </c>
-      <c r="F32" s="4" t="str">
-        <f>+VLOOKUP(E32,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H32" s="4" t="str">
+        <f>+VLOOKUP(G32,Definicion!$A$3:$C$12,3,0)</f>
         <v>Mensaje de texto normal (El que existe actualente para enviar un mensaje en el chat)</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="2">
+    <row r="33" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="2">
         <v>0</v>
       </c>
-      <c r="F33" s="2" t="str">
-        <f>+VLOOKUP(E33,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H33" s="2" t="str">
+        <f>+VLOOKUP(G33,Definicion!$A$3:$C$12,3,0)</f>
         <v>Cancelar el trato actual</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="4">
+      <c r="I33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="4">
         <v>1</v>
       </c>
-      <c r="F34" s="4" t="str">
-        <f>+VLOOKUP(E34,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H34" s="4" t="str">
+        <f>+VLOOKUP(G34,Definicion!$A$3:$C$12,3,0)</f>
         <v>Aceptar el trato</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="2">
+      <c r="I34" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="2">
         <v>2</v>
       </c>
-      <c r="F35" s="2" t="str">
-        <f>+VLOOKUP(E35,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H35" s="2" t="str">
+        <f>+VLOOKUP(G35,Definicion!$A$3:$C$12,3,0)</f>
         <v>Ofertar un valor por un ejemplar</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="4">
+      <c r="I35" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="32"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="4">
         <v>5</v>
       </c>
-      <c r="F36" s="4" t="str">
-        <f>+VLOOKUP(E36,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H36" s="4" t="str">
+        <f>+VLOOKUP(G36,Definicion!$A$3:$C$12,3,0)</f>
         <v>Recibir el ejemplar (Se informa a la plataforma que físicamente se recibió)</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
+    <row r="37" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="32"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="2">
+      <c r="C37" s="32"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="2">
         <v>6</v>
       </c>
-      <c r="F37" s="2" t="str">
-        <f>+VLOOKUP(E37,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H37" s="2" t="str">
+        <f>+VLOOKUP(G37,Definicion!$A$3:$C$12,3,0)</f>
         <v>Calificación (El solicitante califica)</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
+      <c r="I37" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="36"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="4">
+      <c r="C38" s="36"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="4">
         <v>10</v>
       </c>
-      <c r="F38" s="4" t="str">
-        <f>+VLOOKUP(E38,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H38" s="4" t="str">
+        <f>+VLOOKUP(G38,Definicion!$A$3:$C$12,3,0)</f>
         <v>TRATO FINALIZADO</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="27">
+      <c r="I38" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="33">
         <v>7</v>
       </c>
-      <c r="B39" s="37" t="str">
+      <c r="B39" s="45" t="str">
         <f>+VLOOKUP(A39,Definicion!$A$3:$C$12,3,0)</f>
         <v>Calificación (El dueño califica)</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="33"/>
+      <c r="E39" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="2">
+      <c r="F39" s="33"/>
+      <c r="G39" s="2">
         <v>-1</v>
       </c>
-      <c r="F39" s="2" t="str">
-        <f>+VLOOKUP(E39,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H39" s="2" t="str">
+        <f>+VLOOKUP(G39,Definicion!$A$3:$C$12,3,0)</f>
         <v>Mensaje de texto normal (El que existe actualente para enviar un mensaje en el chat)</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="4">
+    <row r="40" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="4">
         <v>0</v>
       </c>
-      <c r="F40" s="4" t="str">
-        <f>+VLOOKUP(E40,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H40" s="4" t="str">
+        <f>+VLOOKUP(G40,Definicion!$A$3:$C$12,3,0)</f>
         <v>Cancelar el trato actual</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="2">
+      <c r="I40" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="2">
         <v>1</v>
       </c>
-      <c r="F41" s="2" t="str">
-        <f>+VLOOKUP(E41,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H41" s="2" t="str">
+        <f>+VLOOKUP(G41,Definicion!$A$3:$C$12,3,0)</f>
         <v>Aceptar el trato</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="4">
+      <c r="I41" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="4">
         <v>2</v>
       </c>
-      <c r="F42" s="4" t="str">
-        <f>+VLOOKUP(E42,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H42" s="4" t="str">
+        <f>+VLOOKUP(G42,Definicion!$A$3:$C$12,3,0)</f>
         <v>Ofertar un valor por un ejemplar</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="2">
+      <c r="I42" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="2">
         <v>5</v>
       </c>
-      <c r="F43" s="2" t="str">
-        <f>+VLOOKUP(E43,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H43" s="2" t="str">
+        <f>+VLOOKUP(G43,Definicion!$A$3:$C$12,3,0)</f>
         <v>Recibir el ejemplar (Se informa a la plataforma que físicamente se recibió)</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="4">
+      <c r="I43" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="34"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="4">
         <v>6</v>
       </c>
-      <c r="F44" s="4" t="str">
-        <f>+VLOOKUP(E44,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H44" s="4" t="str">
+        <f>+VLOOKUP(G44,Definicion!$A$3:$C$12,3,0)</f>
         <v>Calificación (El solicitante califica)</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="I44" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
+    <row r="45" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="37"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="2">
+      <c r="C45" s="37"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="2">
         <v>10</v>
       </c>
-      <c r="F45" s="2" t="str">
-        <f>+VLOOKUP(E45,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H45" s="2" t="str">
+        <f>+VLOOKUP(G45,Definicion!$A$3:$C$12,3,0)</f>
         <v>TRATO FINALIZADO</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="24">
+      <c r="I45" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="31">
         <v>10</v>
       </c>
-      <c r="B46" s="35" t="str">
+      <c r="B46" s="43" t="str">
         <f>+VLOOKUP(A46,Definicion!$A$3:$C$12,3,0)</f>
         <v>TRATO FINALIZADO</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="35"/>
+      <c r="E46" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F46" s="35"/>
+      <c r="G46" s="4">
         <v>-1</v>
       </c>
-      <c r="F46" s="4" t="str">
-        <f>+VLOOKUP(E46,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H46" s="4" t="str">
+        <f>+VLOOKUP(G46,Definicion!$A$3:$C$12,3,0)</f>
         <v>Mensaje de texto normal (El que existe actualente para enviar un mensaje en el chat)</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="I46" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="2">
+    <row r="47" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="2">
         <v>0</v>
       </c>
-      <c r="F47" s="2" t="str">
-        <f>+VLOOKUP(E47,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H47" s="2" t="str">
+        <f>+VLOOKUP(G47,Definicion!$A$3:$C$12,3,0)</f>
         <v>Cancelar el trato actual</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="4">
+      <c r="I47" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="4">
         <v>1</v>
       </c>
-      <c r="F48" s="4" t="str">
-        <f>+VLOOKUP(E48,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H48" s="4" t="str">
+        <f>+VLOOKUP(G48,Definicion!$A$3:$C$12,3,0)</f>
         <v>Aceptar el trato</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="2">
+      <c r="I48" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="2">
         <v>2</v>
       </c>
-      <c r="F49" s="2" t="str">
-        <f>+VLOOKUP(E49,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H49" s="2" t="str">
+        <f>+VLOOKUP(G49,Definicion!$A$3:$C$12,3,0)</f>
         <v>Ofertar un valor por un ejemplar</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="4">
+      <c r="I49" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="4">
         <v>5</v>
       </c>
-      <c r="F50" s="4" t="str">
-        <f>+VLOOKUP(E50,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H50" s="4" t="str">
+        <f>+VLOOKUP(G50,Definicion!$A$3:$C$12,3,0)</f>
         <v>Recibir el ejemplar (Se informa a la plataforma que físicamente se recibió)</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="2">
+      <c r="I50" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="2">
         <v>6</v>
       </c>
-      <c r="F51" s="2" t="str">
-        <f>+VLOOKUP(E51,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H51" s="2" t="str">
+        <f>+VLOOKUP(G51,Definicion!$A$3:$C$12,3,0)</f>
         <v>Calificación (El solicitante califica)</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="4">
+      <c r="I51" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="36"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="4">
         <v>10</v>
       </c>
-      <c r="F52" s="4" t="str">
-        <f>+VLOOKUP(E52,Definicion!$A$3:$C$12,3,0)</f>
+      <c r="H52" s="4" t="str">
+        <f>+VLOOKUP(G52,Definicion!$A$3:$C$12,3,0)</f>
         <v>TRATO FINALIZADO</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="I52" s="4" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G52">
-    <filterColumn colId="6">
+  <autoFilter ref="A2:I52" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="8">
       <filters>
         <filter val="S"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="36">
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="D46:D52"/>
-    <mergeCell ref="D18:D21"/>
+  <mergeCells count="50">
     <mergeCell ref="C46:C52"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B7"/>
@@ -3023,15 +5238,61 @@
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D46:D52"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="F46:F52"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E4:E7"/>
     <mergeCell ref="D4:D7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="E46:E52"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D32:D36"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4949CFBB-A508-4444-B4B7-C75CA09ADF0F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B28F13-D480-4CAC-A1D9-AE89B82CBBA9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>